--- a/Test/Catalog/Pias_Classical/Catalog/Classical Stocklist 23-09-2019.xlsx
+++ b/Test/Catalog/Pias_Classical/Catalog/Classical Stocklist 23-09-2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrei Bancila\Desktop\SupplierListManagerProject\Test\Catalog\Pias_Classical\Catalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51E273D-8467-4A58-B9D0-591D81A701C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267648E1-4E51-4BB9-8FEF-D496B72115AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6744" yWindow="2628" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5052" yWindow="1536" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>

--- a/Test/Catalog/Pias_Classical/Catalog/Classical Stocklist 23-09-2019.xlsx
+++ b/Test/Catalog/Pias_Classical/Catalog/Classical Stocklist 23-09-2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrei Bancila\Desktop\SupplierListManagerProject\Test\Catalog\Pias_Classical\Catalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267648E1-4E51-4BB9-8FEF-D496B72115AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFC9589-0EBF-452B-BF7D-88651EDDC14D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5052" yWindow="1536" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34680" yWindow="3648" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
